--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/botelho/Documents/GitHub/Validades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD57659F-7E47-264D-A59D-1838C85490D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8975822-AABF-1E40-965C-5501C105B27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34460" yWindow="2440" windowWidth="28240" windowHeight="17240" xr2:uid="{DC1B653C-F829-8D4D-9322-C283E7242A39}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Código Produto</t>
   </si>
   <si>
-    <t>Nome do Produto</t>
-  </si>
-  <si>
     <t>Banana</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>Pera</t>
+  </si>
+  <si>
+    <t>Nome Produto</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/botelho/Documents/GitHub/Validades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8975822-AABF-1E40-965C-5501C105B27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A16B9D-6E3F-6E42-9CB0-D6108AE0F4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34460" yWindow="2440" windowWidth="28240" windowHeight="17240" xr2:uid="{DC1B653C-F829-8D4D-9322-C283E7242A39}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Código Produto</t>
-  </si>
-  <si>
     <t>Banana</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>Nome Produto</t>
+  </si>
+  <si>
+    <t>Codigo Produto</t>
   </si>
 </sst>
 </file>
@@ -424,18 +424,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A363AD-89E8-FA42-8739-3943732C5048}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -443,7 +444,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -451,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -459,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
